--- a/1/task1.xlsx
+++ b/1/task1.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryotaeisaki0530/Desktop/physical_simulation/1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{48470453-0FA3-334A-9B06-C70D02A089E0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FFDA2F6-3639-174C-935F-DC199A054A73}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="460" windowWidth="24740" windowHeight="15000"/>
+    <workbookView xWindow="-5900" yWindow="-21140" windowWidth="23540" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="9">
   <si>
     <t>x</t>
   </si>
@@ -42,11 +42,23 @@
     <t>データ区間</t>
     <phoneticPr fontId="18"/>
   </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>標準偏差</t>
+    <phoneticPr fontId="18"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19">
     <font>
       <sz val="12"/>
@@ -742,6 +754,98 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="2400" i="1">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>x</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="2400" i="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>^2</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="2400">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>+</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="2400" i="1">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>y</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="2400" i="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>^2</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="2400">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>≦1</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="2400">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>を満たす</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="2400">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>(x, y)</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="2400">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>の散布図</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1800">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -754,13 +858,27 @@
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:sysClr val="windowText" lastClr="000000">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
-                </a:schemeClr>
+                </a:sysClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -3870,6 +3988,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="2000"/>
+                  <a:t>X</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3932,6 +4105,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1600"/>
+                  <a:t>Y</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4050,8 +4278,634 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="ja-JP" altLang="en-US"/>
-              <a:t>ヒストグラム</a:t>
+              <a:t>ヒストグラム：</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>Y</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>頻度</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>ヒストグラムy!$A$2:$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>次の級</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ヒストグラムy!$B$2:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-57F8-CA4F-8D57-D65CFEF5C983}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="2002440000"/>
+        <c:axId val="2002116816"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2002440000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>データ区間</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2002116816"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2002116816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>頻度</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2002440000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>ヒストグラム：</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>X</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>頻度</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>ヒストグラムx!$A$2:$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>次の級</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ヒストグラムx!$B$2:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3CF2-234D-B56D-8134BA315BA9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="2003559360"/>
+        <c:axId val="2003561040"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2003559360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>データ区間</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2003561040"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2003561040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>頻度</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2003559360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>ヒストグラム：</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>X</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -4331,7 +5185,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -4356,7 +5210,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="ja-JP" altLang="en-US"/>
-              <a:t>ヒストグラム</a:t>
+              <a:t>ヒストグラム：</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>Y</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -5198,15 +6056,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>920750</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:colOff>92075</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>222249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>777875</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5226,6 +6084,82 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>206375</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>206375</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="グラフ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2F8C43A-B20D-8140-8C89-1B322F619DE9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="グラフ 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{477FBF77-FE1E-904E-959A-543E3BDB1C48}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5612,16 +6546,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C501"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O501"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:15" ht="21" thickBot="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5631,8 +6565,11 @@
       <c r="C1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="M1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2">
         <v>3.0209999999999998E-3</v>
       </c>
@@ -5642,8 +6579,17 @@
       <c r="C2">
         <v>-1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="M2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3">
         <v>-0.33634599999999998</v>
       </c>
@@ -5653,8 +6599,18 @@
       <c r="C3">
         <v>-0.9</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="M3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N3" s="2">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <f>_xlfn.STDEV.P(A2:A501)</f>
+        <v>0.57083357849250804</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4">
         <v>-0.35184599999999999</v>
       </c>
@@ -5664,8 +6620,14 @@
       <c r="C4">
         <v>-0.8</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="M4" s="1">
+        <v>-0.9</v>
+      </c>
+      <c r="N4" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5">
         <v>0.159222</v>
       </c>
@@ -5675,8 +6637,14 @@
       <c r="C5">
         <v>-0.7</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="M5" s="1">
+        <v>-0.8</v>
+      </c>
+      <c r="N5" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6">
         <v>0.20841299999999999</v>
       </c>
@@ -5686,8 +6654,14 @@
       <c r="C6">
         <v>-0.6</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="M6" s="1">
+        <v>-0.7</v>
+      </c>
+      <c r="N6" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7">
         <v>3.1801999999999997E-2</v>
       </c>
@@ -5697,8 +6671,14 @@
       <c r="C7">
         <v>-0.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="M7" s="1">
+        <v>-0.6</v>
+      </c>
+      <c r="N7" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8">
         <v>0.75262399999999996</v>
       </c>
@@ -5708,8 +6688,14 @@
       <c r="C8">
         <v>-0.4</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="M8" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="N8" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9">
         <v>0.63619099999999995</v>
       </c>
@@ -5719,8 +6705,14 @@
       <c r="C9">
         <v>-0.3</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="M9" s="1">
+        <v>-0.4</v>
+      </c>
+      <c r="N9" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10">
         <v>-0.936338</v>
       </c>
@@ -5730,8 +6722,14 @@
       <c r="C10">
         <v>-0.2</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="M10" s="1">
+        <v>-0.3</v>
+      </c>
+      <c r="N10" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11">
         <v>-1.5590000000000001E-3</v>
       </c>
@@ -5741,8 +6739,14 @@
       <c r="C11">
         <v>-0.1</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="M11" s="1">
+        <v>-0.2</v>
+      </c>
+      <c r="N11" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12">
         <v>-0.850414</v>
       </c>
@@ -5752,8 +6756,14 @@
       <c r="C12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="M12" s="1">
+        <v>-0.1</v>
+      </c>
+      <c r="N12" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13">
         <v>-0.65501600000000004</v>
       </c>
@@ -5763,8 +6773,14 @@
       <c r="C13">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="M13" s="1">
+        <v>0</v>
+      </c>
+      <c r="N13" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14">
         <v>0.62041999999999997</v>
       </c>
@@ -5774,8 +6790,14 @@
       <c r="C14">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="M14" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="N14" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15">
         <v>-0.501552</v>
       </c>
@@ -5785,8 +6807,14 @@
       <c r="C15">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="M15" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="N15" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16">
         <v>0.57575200000000004</v>
       </c>
@@ -5796,8 +6824,14 @@
       <c r="C16">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="M16" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="N16" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17">
         <v>-0.61615900000000001</v>
       </c>
@@ -5807,8 +6841,14 @@
       <c r="C17">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="M17" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="N17" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18">
         <v>-0.69314399999999998</v>
       </c>
@@ -5818,8 +6858,14 @@
       <c r="C18">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="M18" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="N18" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19">
         <v>0.127607</v>
       </c>
@@ -5829,8 +6875,14 @@
       <c r="C19">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="M19" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="N19" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20">
         <v>0.198487</v>
       </c>
@@ -5840,8 +6892,14 @@
       <c r="C20">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="M20" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="N20" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21">
         <v>0.54043099999999999</v>
       </c>
@@ -5851,8 +6909,14 @@
       <c r="C21">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="M21" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="N21" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22">
         <v>-0.64298999999999995</v>
       </c>
@@ -5862,24 +6926,42 @@
       <c r="C22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="M22" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="N22" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23">
         <v>0.94691499999999995</v>
       </c>
       <c r="B23">
         <v>-6.5790000000000001E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="M23" s="1">
+        <v>1</v>
+      </c>
+      <c r="N23" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="21" thickBot="1">
       <c r="A24">
         <v>-0.51383000000000001</v>
       </c>
       <c r="B24">
         <v>-0.80920499999999995</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25">
         <v>-0.188999</v>
       </c>
@@ -5887,199 +6969,347 @@
         <v>0.48799599999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:15" ht="21" thickBot="1">
       <c r="A26">
         <v>-0.73395299999999997</v>
       </c>
       <c r="B26">
         <v>-0.37029699999999999</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="M26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27">
         <v>-0.133016</v>
       </c>
       <c r="B27">
         <v>-0.59024600000000005</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="M27" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N27" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="O27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28">
         <v>-0.21906900000000001</v>
       </c>
       <c r="B28">
         <v>-0.86443800000000004</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="M28" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N28" s="2">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <f>_xlfn.STDEV.P(B2:B501)</f>
+        <v>0.47351026660331541</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29">
         <v>0.67628200000000005</v>
       </c>
       <c r="B29">
         <v>-0.53643799999999997</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="M29" s="1">
+        <v>-0.9</v>
+      </c>
+      <c r="N29" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30">
         <v>-0.20429</v>
       </c>
       <c r="B30">
         <v>-0.494029</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="M30" s="1">
+        <v>-0.8</v>
+      </c>
+      <c r="N30" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31">
         <v>0.95432700000000004</v>
       </c>
       <c r="B31">
         <v>0.112883</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="M31" s="1">
+        <v>-0.7</v>
+      </c>
+      <c r="N31" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32">
         <v>-0.80390600000000001</v>
       </c>
       <c r="B32">
         <v>-0.15116399999999999</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="M32" s="1">
+        <v>-0.6</v>
+      </c>
+      <c r="N32" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33">
         <v>-0.71130199999999999</v>
       </c>
       <c r="B33">
         <v>0.10312499999999999</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="M33" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="N33" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
       <c r="A34">
         <v>0.84385500000000002</v>
       </c>
       <c r="B34">
         <v>-0.17438400000000001</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
+      <c r="M34" s="1">
+        <v>-0.4</v>
+      </c>
+      <c r="N34" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
       <c r="A35">
         <v>0.73177999999999999</v>
       </c>
       <c r="B35">
         <v>1.5606999999999999E-2</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
+      <c r="M35" s="1">
+        <v>-0.3</v>
+      </c>
+      <c r="N35" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
       <c r="A36">
         <v>-0.16300000000000001</v>
       </c>
       <c r="B36">
         <v>-0.52573000000000003</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
+      <c r="M36" s="1">
+        <v>-0.2</v>
+      </c>
+      <c r="N36" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
       <c r="A37">
         <v>-0.72706099999999996</v>
       </c>
       <c r="B37">
         <v>-0.49510799999999999</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="M37" s="1">
+        <v>-0.1</v>
+      </c>
+      <c r="N37" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
       <c r="A38">
         <v>0.95357499999999995</v>
       </c>
       <c r="B38">
         <v>-8.0246999999999999E-2</v>
       </c>
-    </row>
-    <row r="39" spans="1:2">
+      <c r="M38" s="1">
+        <v>0</v>
+      </c>
+      <c r="N38" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
       <c r="A39">
         <v>0.48249399999999998</v>
       </c>
       <c r="B39">
         <v>0.24182699999999999</v>
       </c>
-    </row>
-    <row r="40" spans="1:2">
+      <c r="M39" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="N39" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
       <c r="A40">
         <v>-0.78173800000000004</v>
       </c>
       <c r="B40">
         <v>0.20729900000000001</v>
       </c>
-    </row>
-    <row r="41" spans="1:2">
+      <c r="M40" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="N40" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
       <c r="A41">
         <v>-5.5495000000000003E-2</v>
       </c>
       <c r="B41">
         <v>0.29849500000000001</v>
       </c>
-    </row>
-    <row r="42" spans="1:2">
+      <c r="M41" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="N41" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
       <c r="A42">
         <v>-0.46252199999999999</v>
       </c>
       <c r="B42">
         <v>-0.53991199999999995</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="M42" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="N42" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
       <c r="A43">
         <v>0.124933</v>
       </c>
       <c r="B43">
         <v>0.73792000000000002</v>
       </c>
-    </row>
-    <row r="44" spans="1:2">
+      <c r="M43" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="N43" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
       <c r="A44">
         <v>-0.85660700000000001</v>
       </c>
       <c r="B44">
         <v>1.941E-3</v>
       </c>
-    </row>
-    <row r="45" spans="1:2">
+      <c r="M44" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="N44" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
       <c r="A45">
         <v>0.18266299999999999</v>
       </c>
       <c r="B45">
         <v>-0.97429500000000002</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="M45" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="N45" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
       <c r="A46">
         <v>-0.209259</v>
       </c>
       <c r="B46">
         <v>-1.0878000000000001E-2</v>
       </c>
-    </row>
-    <row r="47" spans="1:2">
+      <c r="M46" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="N46" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
       <c r="A47">
         <v>1.3223E-2</v>
       </c>
       <c r="B47">
         <v>-0.75970599999999999</v>
       </c>
-    </row>
-    <row r="48" spans="1:2">
+      <c r="M47" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="N47" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
       <c r="A48">
         <v>-0.50811399999999995</v>
       </c>
       <c r="B48">
         <v>-0.75479099999999999</v>
       </c>
-    </row>
-    <row r="49" spans="1:2">
+      <c r="M48" s="1">
+        <v>1</v>
+      </c>
+      <c r="N48" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="21" thickBot="1">
       <c r="A49">
         <v>0.16984299999999999</v>
       </c>
       <c r="B49">
         <v>-0.44456299999999999</v>
       </c>
-    </row>
-    <row r="50" spans="1:2">
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
       <c r="A50">
         <v>-0.93682299999999996</v>
       </c>
@@ -6087,7 +7317,7 @@
         <v>-6.1877000000000001E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:14">
       <c r="A51">
         <v>-4.3533000000000002E-2</v>
       </c>
@@ -6095,7 +7325,7 @@
         <v>-0.65705400000000003</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:14">
       <c r="A52">
         <v>-0.600665</v>
       </c>
@@ -6103,7 +7333,7 @@
         <v>-0.30692399999999997</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:14">
       <c r="A53">
         <v>0.86397500000000005</v>
       </c>
@@ -6111,7 +7341,7 @@
         <v>-8.3336999999999994E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:14">
       <c r="A54">
         <v>-0.66408900000000004</v>
       </c>
@@ -6119,7 +7349,7 @@
         <v>-0.255131</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:14">
       <c r="A55">
         <v>-0.27138899999999999</v>
       </c>
@@ -6127,7 +7357,7 @@
         <v>-0.23219600000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:14">
       <c r="A56">
         <v>0.29763899999999999</v>
       </c>
@@ -6135,7 +7365,7 @@
         <v>-0.56008400000000003</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:14">
       <c r="A57">
         <v>0.76925299999999996</v>
       </c>
@@ -6143,7 +7373,7 @@
         <v>-0.101615</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:14">
       <c r="A58">
         <v>6.9364999999999996E-2</v>
       </c>
@@ -6151,7 +7381,7 @@
         <v>0.82268200000000002</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:14">
       <c r="A59">
         <v>-0.80817399999999995</v>
       </c>
@@ -6159,7 +7389,7 @@
         <v>1.6074000000000001E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:14">
       <c r="A60">
         <v>-0.32973599999999997</v>
       </c>
@@ -6167,7 +7397,7 @@
         <v>-0.82881499999999997</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:14">
       <c r="A61">
         <v>-0.121952</v>
       </c>
@@ -6175,7 +7405,7 @@
         <v>-0.65018600000000004</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:14">
       <c r="A62">
         <v>-0.87773000000000001</v>
       </c>
@@ -6183,7 +7413,7 @@
         <v>0.474856</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:14">
       <c r="A63">
         <v>-0.84215399999999996</v>
       </c>
@@ -6191,7 +7421,7 @@
         <v>0.494589</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:14">
       <c r="A64">
         <v>0.37424800000000003</v>
       </c>
@@ -9703,11 +10933,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B23"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -9907,11 +11137,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B23"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>

--- a/1/task1.xlsx
+++ b/1/task1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryotaeisaki0530/Desktop/physical_simulation/1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FFDA2F6-3639-174C-935F-DC199A054A73}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4E297CE-AE32-9E43-9B83-B37A8AC4BBC4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5900" yWindow="-21140" windowWidth="23540" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2060" yWindow="460" windowWidth="23540" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -4011,6 +4011,11 @@
                   <a:rPr lang="en-US" altLang="ja-JP" sz="2000"/>
                   <a:t>X</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="2000"/>
+                  <a:t>座標の値</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" altLang="ja-JP" sz="2000"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -4128,6 +4133,11 @@
                   <a:rPr lang="en-US" altLang="ja-JP" sz="1600"/>
                   <a:t>Y</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="1600"/>
+                  <a:t>座標の値</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1600"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -4273,25 +4283,77 @@
           <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr>
-              <a:defRPr/>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US"/>
-              <a:t>ヒストグラム：</a:t>
+              <a:rPr lang="ja-JP" altLang="ja-JP" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>図</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP"/>
-              <a:t>Y</a:t>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>3. y</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="ja-JP" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>座標データについてのヒストグラム</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+              <a:effectLst/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14646350806820649"/>
+          <c:y val="0.78691894497221959"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11435140998587096"/>
+          <c:y val="0.13460025329574518"/>
+          <c:w val="0.7661307038118822"/>
+          <c:h val="0.41257929118459952"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -4588,21 +4650,42 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="ja-JP" altLang="en-US"/>
-              <a:t>ヒストグラム：</a:t>
+              <a:t>図</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" altLang="ja-JP"/>
-              <a:t>X</a:t>
+              <a:t>2. x</a:t>
             </a:r>
-            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>座標データについてのヒストグラム</a:t>
+            </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13218313560496511"/>
+          <c:y val="0.80099978976383468"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11435140998587096"/>
+          <c:y val="0.10987798515888403"/>
+          <c:w val="0.7661307038118822"/>
+          <c:h val="0.41257951988289066"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -4781,6 +4864,110 @@
         <c:axId val="2003559360"/>
         <c:axId val="2003561040"/>
       </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>平均値</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>data!$O$3:$O$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>23.809523800000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23.809523800000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23.809523800000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23.809523800000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23.809523800000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23.809523800000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23.809523800000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23.809523800000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23.809523800000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>23.809523800000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>23.809523800000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>23.809523800000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>23.809523800000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>23.809523800000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>23.809523800000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>23.809523800000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>23.809523800000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>23.809523800000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23.809523800000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>23.809523800000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>23.809523800000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000017-F018-7C4B-834F-F0D2D624A23E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2003559360"/>
+        <c:axId val="2003561040"/>
+      </c:lineChart>
       <c:catAx>
         <c:axId val="2003559360"/>
         <c:scaling>
@@ -4853,6 +5040,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.87214731618865959"/>
+          <c:y val="0.18601691812943955"/>
+          <c:w val="0.11973093536257889"/>
+          <c:h val="0.17069984535754887"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6129,16 +6326,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>79375</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>485168</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>199776</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>156966</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>79375</xdr:rowOff>
+      <xdr:rowOff>65105</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6547,15 +6744,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O501"/>
+  <dimension ref="A1:P501"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView tabSelected="1" topLeftCell="C7" zoomScale="119" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="21" thickBot="1">
+    <row r="1" spans="1:16" ht="21" thickBot="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6569,7 +6766,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:16">
       <c r="A2">
         <v>3.0209999999999998E-3</v>
       </c>
@@ -6585,11 +6782,11 @@
       <c r="N2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:16">
       <c r="A3">
         <v>-0.33634599999999998</v>
       </c>
@@ -6599,18 +6796,24 @@
       <c r="C3">
         <v>-0.9</v>
       </c>
+      <c r="L3" s="2">
+        <v>22</v>
+      </c>
       <c r="M3" s="1">
         <v>-1</v>
       </c>
       <c r="N3" s="2">
         <v>0</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="2">
+        <v>23.809523800000001</v>
+      </c>
+      <c r="P3">
         <f>_xlfn.STDEV.P(A2:A501)</f>
         <v>0.57083357849250804</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:16">
       <c r="A4">
         <v>-0.35184599999999999</v>
       </c>
@@ -6620,14 +6823,20 @@
       <c r="C4">
         <v>-0.8</v>
       </c>
+      <c r="L4" s="2">
+        <v>22</v>
+      </c>
       <c r="M4" s="1">
         <v>-0.9</v>
       </c>
       <c r="N4" s="2">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="O4" s="2">
+        <v>23.809523800000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5">
         <v>0.159222</v>
       </c>
@@ -6637,14 +6846,20 @@
       <c r="C5">
         <v>-0.7</v>
       </c>
+      <c r="L5" s="2">
+        <v>23</v>
+      </c>
       <c r="M5" s="1">
         <v>-0.8</v>
       </c>
       <c r="N5" s="2">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="O5" s="2">
+        <v>23.809523800000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6">
         <v>0.20841299999999999</v>
       </c>
@@ -6654,14 +6869,20 @@
       <c r="C6">
         <v>-0.6</v>
       </c>
+      <c r="L6" s="2">
+        <v>22</v>
+      </c>
       <c r="M6" s="1">
         <v>-0.7</v>
       </c>
       <c r="N6" s="2">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="O6" s="2">
+        <v>23.809523800000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7">
         <v>3.1801999999999997E-2</v>
       </c>
@@ -6671,14 +6892,20 @@
       <c r="C7">
         <v>-0.5</v>
       </c>
+      <c r="L7" s="2">
+        <v>26</v>
+      </c>
       <c r="M7" s="1">
         <v>-0.6</v>
       </c>
       <c r="N7" s="2">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="O7" s="2">
+        <v>23.809523800000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8">
         <v>0.75262399999999996</v>
       </c>
@@ -6688,14 +6915,20 @@
       <c r="C8">
         <v>-0.4</v>
       </c>
+      <c r="L8" s="2">
+        <v>22</v>
+      </c>
       <c r="M8" s="1">
         <v>-0.5</v>
       </c>
       <c r="N8" s="2">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="O8" s="2">
+        <v>23.809523800000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9">
         <v>0.63619099999999995</v>
       </c>
@@ -6705,14 +6938,20 @@
       <c r="C9">
         <v>-0.3</v>
       </c>
+      <c r="L9" s="2">
+        <v>23</v>
+      </c>
       <c r="M9" s="1">
         <v>-0.4</v>
       </c>
       <c r="N9" s="2">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="O9" s="2">
+        <v>23.809523800000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10">
         <v>-0.936338</v>
       </c>
@@ -6722,14 +6961,20 @@
       <c r="C10">
         <v>-0.2</v>
       </c>
+      <c r="L10" s="2">
+        <v>31</v>
+      </c>
       <c r="M10" s="1">
         <v>-0.3</v>
       </c>
       <c r="N10" s="2">
         <v>31</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="O10" s="2">
+        <v>23.809523800000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11">
         <v>-1.5590000000000001E-3</v>
       </c>
@@ -6739,14 +6984,20 @@
       <c r="C11">
         <v>-0.1</v>
       </c>
+      <c r="L11" s="2">
+        <v>25</v>
+      </c>
       <c r="M11" s="1">
         <v>-0.2</v>
       </c>
       <c r="N11" s="2">
         <v>35</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="O11" s="2">
+        <v>23.809523800000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12">
         <v>-0.850414</v>
       </c>
@@ -6756,14 +7007,20 @@
       <c r="C12">
         <v>0</v>
       </c>
+      <c r="L12" s="2">
+        <v>24</v>
+      </c>
       <c r="M12" s="1">
         <v>-0.1</v>
       </c>
       <c r="N12" s="2">
         <v>29</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="O12" s="2">
+        <v>23.809523800000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13">
         <v>-0.65501600000000004</v>
       </c>
@@ -6773,14 +7030,20 @@
       <c r="C13">
         <v>0.1</v>
       </c>
+      <c r="L13" s="2">
+        <v>24</v>
+      </c>
       <c r="M13" s="1">
         <v>0</v>
       </c>
       <c r="N13" s="2">
         <v>24</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="O13" s="2">
+        <v>23.809523800000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14">
         <v>0.62041999999999997</v>
       </c>
@@ -6790,14 +7053,20 @@
       <c r="C14">
         <v>0.2</v>
       </c>
+      <c r="L14" s="2">
+        <v>23</v>
+      </c>
       <c r="M14" s="1">
         <v>0.1</v>
       </c>
       <c r="N14" s="2">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="O14" s="2">
+        <v>23.809523800000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15">
         <v>-0.501552</v>
       </c>
@@ -6807,14 +7076,20 @@
       <c r="C15">
         <v>0.3</v>
       </c>
+      <c r="L15" s="2">
+        <v>24</v>
+      </c>
       <c r="M15" s="1">
         <v>0.2</v>
       </c>
       <c r="N15" s="2">
         <v>24</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="O15" s="2">
+        <v>23.809523800000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16">
         <v>0.57575200000000004</v>
       </c>
@@ -6824,14 +7099,20 @@
       <c r="C16">
         <v>0.4</v>
       </c>
+      <c r="L16" s="2">
+        <v>25</v>
+      </c>
       <c r="M16" s="1">
         <v>0.3</v>
       </c>
       <c r="N16" s="2">
         <v>25</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="O16" s="2">
+        <v>23.809523800000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17">
         <v>-0.61615900000000001</v>
       </c>
@@ -6841,14 +7122,20 @@
       <c r="C17">
         <v>0.5</v>
       </c>
+      <c r="L17" s="2">
+        <v>24</v>
+      </c>
       <c r="M17" s="1">
         <v>0.4</v>
       </c>
       <c r="N17" s="2">
         <v>24</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="O17" s="2">
+        <v>23.809523800000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18">
         <v>-0.69314399999999998</v>
       </c>
@@ -6858,14 +7145,20 @@
       <c r="C18">
         <v>0.6</v>
       </c>
+      <c r="L18" s="2">
+        <v>22</v>
+      </c>
       <c r="M18" s="1">
         <v>0.5</v>
       </c>
       <c r="N18" s="2">
         <v>22</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="O18" s="2">
+        <v>23.809523800000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19">
         <v>0.127607</v>
       </c>
@@ -6875,14 +7168,20 @@
       <c r="C19">
         <v>0.7</v>
       </c>
+      <c r="L19" s="2">
+        <v>22</v>
+      </c>
       <c r="M19" s="1">
         <v>0.6</v>
       </c>
       <c r="N19" s="2">
         <v>22</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="O19" s="2">
+        <v>23.809523800000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20">
         <v>0.198487</v>
       </c>
@@ -6892,14 +7191,24 @@
       <c r="C20">
         <v>0.8</v>
       </c>
+      <c r="L20" s="2">
+        <v>27</v>
+      </c>
       <c r="M20" s="1">
         <v>0.7</v>
       </c>
       <c r="N20" s="2">
         <v>27</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="O20" s="2">
+        <v>23.809523800000001</v>
+      </c>
+      <c r="P20">
+        <f>AVERAGE(N3:N23)</f>
+        <v>23.80952380952381</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21">
         <v>0.54043099999999999</v>
       </c>
@@ -6909,14 +7218,20 @@
       <c r="C21">
         <v>0.9</v>
       </c>
+      <c r="L21" s="2">
+        <v>22</v>
+      </c>
       <c r="M21" s="1">
         <v>0.8</v>
       </c>
       <c r="N21" s="2">
         <v>22</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="O21" s="2">
+        <v>23.809523800000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22">
         <v>-0.64298999999999995</v>
       </c>
@@ -6926,28 +7241,44 @@
       <c r="C22">
         <v>1</v>
       </c>
+      <c r="L22" s="2">
+        <v>20</v>
+      </c>
       <c r="M22" s="1">
         <v>0.9</v>
       </c>
       <c r="N22" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="O22" s="2">
+        <v>23.809523800000001</v>
+      </c>
+      <c r="P22">
+        <f>SUM(L3:L23)</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23">
         <v>0.94691499999999995</v>
       </c>
       <c r="B23">
         <v>-6.5790000000000001E-2</v>
       </c>
+      <c r="L23" s="2">
+        <v>27</v>
+      </c>
       <c r="M23" s="1">
         <v>1</v>
       </c>
       <c r="N23" s="2">
         <v>32</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" ht="21" thickBot="1">
+      <c r="O23" s="2">
+        <v>23.809523800000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="21" thickBot="1">
       <c r="A24">
         <v>-0.51383000000000001</v>
       </c>
@@ -6961,7 +7292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:16">
       <c r="A25">
         <v>-0.188999</v>
       </c>
@@ -6969,7 +7300,7 @@
         <v>0.48799599999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="21" thickBot="1">
+    <row r="26" spans="1:16" ht="21" thickBot="1">
       <c r="A26">
         <v>-0.73395299999999997</v>
       </c>
@@ -6980,7 +7311,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:16">
       <c r="A27">
         <v>-0.133016</v>
       </c>
@@ -6997,12 +7328,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:16">
       <c r="A28">
         <v>-0.21906900000000001</v>
       </c>
       <c r="B28">
         <v>-0.86443800000000004</v>
+      </c>
+      <c r="L28" s="2">
+        <v>8</v>
       </c>
       <c r="M28" s="1">
         <v>-1</v>
@@ -7015,13 +7349,16 @@
         <v>0.47351026660331541</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:16">
       <c r="A29">
         <v>0.67628200000000005</v>
       </c>
       <c r="B29">
         <v>-0.53643799999999997</v>
       </c>
+      <c r="L29" s="2">
+        <v>10</v>
+      </c>
       <c r="M29" s="1">
         <v>-0.9</v>
       </c>
@@ -7029,13 +7366,16 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:16">
       <c r="A30">
         <v>-0.20429</v>
       </c>
       <c r="B30">
         <v>-0.494029</v>
       </c>
+      <c r="L30" s="2">
+        <v>12</v>
+      </c>
       <c r="M30" s="1">
         <v>-0.8</v>
       </c>
@@ -7043,13 +7383,16 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:16">
       <c r="A31">
         <v>0.95432700000000004</v>
       </c>
       <c r="B31">
         <v>0.112883</v>
       </c>
+      <c r="L31" s="2">
+        <v>12</v>
+      </c>
       <c r="M31" s="1">
         <v>-0.7</v>
       </c>
@@ -7057,12 +7400,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:16">
       <c r="A32">
         <v>-0.80390600000000001</v>
       </c>
       <c r="B32">
         <v>-0.15116399999999999</v>
+      </c>
+      <c r="L32" s="2">
+        <v>19</v>
       </c>
       <c r="M32" s="1">
         <v>-0.6</v>
@@ -7078,6 +7424,9 @@
       <c r="B33">
         <v>0.10312499999999999</v>
       </c>
+      <c r="L33" s="2">
+        <v>33</v>
+      </c>
       <c r="M33" s="1">
         <v>-0.5</v>
       </c>
@@ -7092,6 +7441,9 @@
       <c r="B34">
         <v>-0.17438400000000001</v>
       </c>
+      <c r="L34" s="2">
+        <v>33</v>
+      </c>
       <c r="M34" s="1">
         <v>-0.4</v>
       </c>
@@ -7106,6 +7458,9 @@
       <c r="B35">
         <v>1.5606999999999999E-2</v>
       </c>
+      <c r="L35" s="2">
+        <v>30</v>
+      </c>
       <c r="M35" s="1">
         <v>-0.3</v>
       </c>
@@ -7120,6 +7475,9 @@
       <c r="B36">
         <v>-0.52573000000000003</v>
       </c>
+      <c r="L36" s="2">
+        <v>35</v>
+      </c>
       <c r="M36" s="1">
         <v>-0.2</v>
       </c>
@@ -7134,6 +7492,9 @@
       <c r="B37">
         <v>-0.49510799999999999</v>
       </c>
+      <c r="L37" s="2">
+        <v>35</v>
+      </c>
       <c r="M37" s="1">
         <v>-0.1</v>
       </c>
@@ -7148,6 +7509,9 @@
       <c r="B38">
         <v>-8.0246999999999999E-2</v>
       </c>
+      <c r="L38" s="2">
+        <v>36</v>
+      </c>
       <c r="M38" s="1">
         <v>0</v>
       </c>
@@ -7162,6 +7526,9 @@
       <c r="B39">
         <v>0.24182699999999999</v>
       </c>
+      <c r="L39" s="2">
+        <v>43</v>
+      </c>
       <c r="M39" s="1">
         <v>0.1</v>
       </c>
@@ -7176,6 +7543,9 @@
       <c r="B40">
         <v>0.20729900000000001</v>
       </c>
+      <c r="L40" s="2">
+        <v>29</v>
+      </c>
       <c r="M40" s="1">
         <v>0.2</v>
       </c>
@@ -7190,6 +7560,9 @@
       <c r="B41">
         <v>0.29849500000000001</v>
       </c>
+      <c r="L41" s="2">
+        <v>32</v>
+      </c>
       <c r="M41" s="1">
         <v>0.3</v>
       </c>
@@ -7204,6 +7577,9 @@
       <c r="B42">
         <v>-0.53991199999999995</v>
       </c>
+      <c r="L42" s="2">
+        <v>26</v>
+      </c>
       <c r="M42" s="1">
         <v>0.4</v>
       </c>
@@ -7218,6 +7594,9 @@
       <c r="B43">
         <v>0.73792000000000002</v>
       </c>
+      <c r="L43" s="2">
+        <v>26</v>
+      </c>
       <c r="M43" s="1">
         <v>0.5</v>
       </c>
@@ -7232,6 +7611,9 @@
       <c r="B44">
         <v>1.941E-3</v>
       </c>
+      <c r="L44" s="2">
+        <v>21</v>
+      </c>
       <c r="M44" s="1">
         <v>0.6</v>
       </c>
@@ -7246,6 +7628,9 @@
       <c r="B45">
         <v>-0.97429500000000002</v>
       </c>
+      <c r="L45" s="2">
+        <v>16</v>
+      </c>
       <c r="M45" s="1">
         <v>0.7</v>
       </c>
@@ -7260,6 +7645,9 @@
       <c r="B46">
         <v>-1.0878000000000001E-2</v>
       </c>
+      <c r="L46" s="2">
+        <v>21</v>
+      </c>
       <c r="M46" s="1">
         <v>0.8</v>
       </c>
@@ -7274,6 +7662,9 @@
       <c r="B47">
         <v>-0.75970599999999999</v>
       </c>
+      <c r="L47" s="2">
+        <v>17</v>
+      </c>
       <c r="M47" s="1">
         <v>0.9</v>
       </c>
@@ -7287,6 +7678,9 @@
       </c>
       <c r="B48">
         <v>-0.75479099999999999</v>
+      </c>
+      <c r="L48" s="2">
+        <v>7</v>
       </c>
       <c r="M48" s="1">
         <v>1</v>
@@ -10937,7 +11331,7 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="B2" sqref="B2:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -11141,7 +11535,7 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
